--- a/exports/main_keywords/grafo.xlsx
+++ b/exports/main_keywords/grafo.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -474,12 +474,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -546,12 +546,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -564,16 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -582,16 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -600,12 +600,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -618,16 +618,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -636,12 +636,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -672,12 +672,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -690,12 +690,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -708,16 +708,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -744,12 +744,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -762,16 +762,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -798,16 +798,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -816,16 +816,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -834,12 +834,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -852,12 +852,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -870,12 +870,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -906,16 +906,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -924,12 +924,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -942,16 +942,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -960,12 +960,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -978,16 +978,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1001,11 +1001,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1086,16 +1086,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1104,16 +1104,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1212,16 +1212,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D46" t="n">
